--- a/ESPN sports website/IPL/Sunrisers Hyderabad/Romario Shepherd.xlsx
+++ b/ESPN sports website/IPL/Sunrisers Hyderabad/Romario Shepherd.xlsx
@@ -480,31 +480,31 @@
         <v>Romario Shepherd</v>
       </c>
       <c r="C3" t="str">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D3" t="str">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>173.33</v>
+        <v>100.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>May 22, 2022</v>
+        <v>April 04, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
+        <v>Super Giants won by 12 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Romario Shepherd</v>
       </c>
       <c r="C4" t="str">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D4" t="str">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
-        <v>100.00</v>
+        <v>173.33</v>
       </c>
       <c r="H4" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>April 04, 2022</v>
+        <v>May 22, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Giants won by 12 runs</v>
+        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
       </c>
     </row>
   </sheetData>
